--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Swaps.xlsx
@@ -18,9 +18,6 @@
     <sheet name="3M (2)" sheetId="22" r:id="rId9"/>
     <sheet name="6M (2)" sheetId="23" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!$D$16</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
@@ -57,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="109">
   <si>
     <t>Currency</t>
   </si>
@@ -382,6 +379,9 @@
   <si>
     <t>MPC</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -397,7 +397,7 @@
     <numFmt numFmtId="170" formatCode="General_)"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1052,22 +1052,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1362,7 +1346,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="14" customWidth="1"/>
@@ -1373,13 +1357,13 @@
     <col min="7" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="111" t="s">
         <v>53</v>
@@ -1388,14 +1372,14 @@
       <c r="D2" s="112"/>
       <c r="E2" s="113"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="26"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="26"/>
       <c r="C4" s="36" t="s">
@@ -1404,7 +1388,7 @@
       <c r="D4" s="37"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="26"/>
       <c r="C5" s="36" t="s">
@@ -1415,7 +1399,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="26"/>
       <c r="C6" s="36" t="s">
@@ -1426,7 +1410,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="26"/>
       <c r="C7" s="36" t="s">
@@ -1437,19 +1421,18 @@
       </c>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="26"/>
       <c r="C8" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="38" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="26"/>
       <c r="C9" s="36" t="s">
@@ -1460,15 +1443,15 @@
       </c>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="111" t="s">
         <v>72</v>
       </c>
@@ -1479,13 +1462,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="40" t="s">
         <v>0</v>
@@ -1498,7 +1481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
       <c r="C15" s="40" t="s">
         <v>80</v>
@@ -1508,7 +1491,7 @@
       </c>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="32"/>
       <c r="C16" s="40" t="s">
         <v>81</v>
@@ -1518,7 +1501,7 @@
       </c>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="32"/>
       <c r="C17" s="40" t="s">
         <v>82</v>
@@ -1528,7 +1511,7 @@
       </c>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="32"/>
       <c r="C18" s="40" t="s">
         <v>1</v>
@@ -1538,7 +1521,7 @@
       </c>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="32"/>
       <c r="C19" s="40" t="s">
         <v>59</v>
@@ -1548,7 +1531,7 @@
       </c>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="107"/>
       <c r="B20" s="32"/>
       <c r="C20" s="40" t="s">
@@ -1560,7 +1543,7 @@
       </c>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75">
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="32"/>
       <c r="C21" s="40" t="s">
         <v>100</v>
@@ -1571,7 +1554,7 @@
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1">
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -1612,7 +1595,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -1634,7 +1617,7 @@
     <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1650,7 +1633,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1676,7 +1659,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>73</v>
@@ -1703,17 +1686,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YC6M-MxRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1738,7 +1721,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1754,7 +1737,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>74</v>
@@ -1811,7 +1794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>74</v>
@@ -1866,7 +1849,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>74</v>
@@ -1921,7 +1904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>74</v>
@@ -1976,7 +1959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>74</v>
@@ -2031,7 +2014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>74</v>
@@ -2077,7 +2060,7 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>74</v>
@@ -2123,7 +2106,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>74</v>
@@ -2169,7 +2152,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>74</v>
@@ -2215,7 +2198,7 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>74</v>
@@ -2261,7 +2244,7 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>74</v>
@@ -2307,7 +2290,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>74</v>
@@ -2353,7 +2336,7 @@
       </c>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>74</v>
@@ -2399,7 +2382,7 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>74</v>
@@ -2445,7 +2428,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>74</v>
@@ -2491,7 +2474,7 @@
       </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>74</v>
@@ -2537,7 +2520,7 @@
       </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>74</v>
@@ -2583,7 +2566,7 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>74</v>
@@ -2629,7 +2612,7 @@
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>74</v>
@@ -2675,7 +2658,7 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>74</v>
@@ -2721,7 +2704,7 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>74</v>
@@ -2767,7 +2750,7 @@
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>74</v>
@@ -2813,7 +2796,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>74</v>
@@ -2859,7 +2842,7 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>74</v>
@@ -2905,7 +2888,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>74</v>
@@ -2951,7 +2934,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
@@ -2997,7 +2980,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>74</v>
@@ -3043,7 +3026,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>74</v>
@@ -3089,7 +3072,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>74</v>
@@ -3135,7 +3118,7 @@
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>74</v>
@@ -3181,7 +3164,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>74</v>
@@ -3227,7 +3210,7 @@
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>74</v>
@@ -3273,7 +3256,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>74</v>
@@ -3319,7 +3302,7 @@
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>74</v>
@@ -3365,7 +3348,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>74</v>
@@ -3411,7 +3394,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>74</v>
@@ -3457,7 +3440,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>74</v>
@@ -3503,7 +3486,7 @@
       </c>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1">
+    <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -3541,7 +3524,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -3563,7 +3546,7 @@
     <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3579,7 +3562,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3603,7 +3586,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>73</v>
@@ -3630,17 +3613,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3665,7 +3648,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3681,7 +3664,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>74</v>
@@ -3734,7 +3717,7 @@
       <c r="Q6" s="71"/>
       <c r="R6" s="72"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>74</v>
@@ -3789,7 +3772,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>74</v>
@@ -3844,7 +3827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>74</v>
@@ -3895,7 +3878,7 @@
       <c r="Q9" s="49"/>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>74</v>
@@ -3950,7 +3933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>74</v>
@@ -3996,7 +3979,7 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>74</v>
@@ -4042,7 +4025,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>74</v>
@@ -4088,7 +4071,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>74</v>
@@ -4134,7 +4117,7 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>74</v>
@@ -4180,7 +4163,7 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>74</v>
@@ -4226,7 +4209,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>74</v>
@@ -4272,7 +4255,7 @@
       </c>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>74</v>
@@ -4318,7 +4301,7 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>74</v>
@@ -4364,7 +4347,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>74</v>
@@ -4410,7 +4393,7 @@
       </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>74</v>
@@ -4456,7 +4439,7 @@
       </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>74</v>
@@ -4502,7 +4485,7 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>74</v>
@@ -4548,7 +4531,7 @@
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>74</v>
@@ -4594,7 +4577,7 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>74</v>
@@ -4640,7 +4623,7 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>74</v>
@@ -4686,7 +4669,7 @@
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>74</v>
@@ -4732,7 +4715,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>74</v>
@@ -4778,7 +4761,7 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>74</v>
@@ -4824,7 +4807,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>74</v>
@@ -4870,7 +4853,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
@@ -4916,7 +4899,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>74</v>
@@ -4962,7 +4945,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>74</v>
@@ -5008,7 +4991,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>74</v>
@@ -5054,7 +5037,7 @@
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>74</v>
@@ -5100,7 +5083,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>74</v>
@@ -5146,7 +5129,7 @@
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>74</v>
@@ -5192,7 +5175,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>74</v>
@@ -5238,7 +5221,7 @@
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>74</v>
@@ -5284,7 +5267,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>74</v>
@@ -5330,7 +5313,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>74</v>
@@ -5376,7 +5359,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>74</v>
@@ -5422,7 +5405,7 @@
       </c>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1">
+    <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -5460,7 +5443,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="77" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="77" bestFit="1" customWidth="1"/>
@@ -5479,7 +5462,7 @@
     <col min="18" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="73"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -5495,7 +5478,7 @@
       <c r="M1" s="74"/>
       <c r="N1" s="76"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="78"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -5517,7 +5500,7 @@
       <c r="M2" s="79"/>
       <c r="N2" s="81"/>
     </row>
-    <row r="3" spans="1:17" ht="36" customHeight="1">
+    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
       <c r="B3" s="82" t="s">
         <v>73</v>
@@ -5546,17 +5529,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YCRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="84" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L74),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>57</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="86"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -5581,7 +5564,7 @@
       </c>
       <c r="N4" s="81"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="86"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -5597,7 +5580,7 @@
       <c r="M5" s="79"/>
       <c r="N5" s="81"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="B6" s="90">
         <v>0</v>
@@ -5650,7 +5633,7 @@
         <v>41492</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="90">
         <v>0</v>
@@ -5704,7 +5687,7 @@
         <v>41499</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="90">
         <v>0</v>
@@ -5758,7 +5741,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
       <c r="B9" s="90">
         <v>0</v>
@@ -5812,7 +5795,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="90">
         <v>0</v>
@@ -5866,7 +5849,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="90">
         <v>0</v>
@@ -5920,7 +5903,7 @@
         <v>41577</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="90">
         <v>0</v>
@@ -5974,7 +5957,7 @@
         <v>41607</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="90">
         <v>0</v>
@@ -6028,7 +6011,7 @@
         <v>41638</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="90">
         <v>0</v>
@@ -6082,7 +6065,7 @@
         <v>41669</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="90">
         <v>0</v>
@@ -6136,7 +6119,7 @@
         <v>41698</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="90">
         <v>0</v>
@@ -6190,7 +6173,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="90">
         <v>0</v>
@@ -6244,7 +6227,7 @@
         <v>41759</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="90">
         <v>0</v>
@@ -6298,7 +6281,7 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="90">
         <v>0</v>
@@ -6352,7 +6335,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="90">
         <v>0</v>
@@ -6406,7 +6389,7 @@
         <v>41850</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="90">
         <v>0</v>
@@ -6460,7 +6443,7 @@
         <v>41942</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="90">
         <v>0</v>
@@ -6514,7 +6497,7 @@
         <v>42034</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="90">
         <v>0</v>
@@ -6568,7 +6551,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
       <c r="B24" s="90">
         <v>0</v>
@@ -6622,7 +6605,7 @@
         <v>42215</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="78"/>
       <c r="B25" s="90">
         <v>0</v>
@@ -6676,7 +6659,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="78"/>
       <c r="B26" s="90">
         <v>0</v>
@@ -6730,7 +6713,7 @@
         <v>42947</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="78"/>
       <c r="B27" s="90">
         <v>0</v>
@@ -6784,7 +6767,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="78"/>
       <c r="B28" s="90">
         <v>0</v>
@@ -6838,7 +6821,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="78"/>
       <c r="B29" s="90">
         <v>0</v>
@@ -6892,7 +6875,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="78"/>
       <c r="B30" s="90">
         <v>0</v>
@@ -6946,7 +6929,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="78"/>
       <c r="B31" s="90">
         <v>0</v>
@@ -7000,7 +6983,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="90">
         <v>0</v>
@@ -7054,7 +7037,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="78"/>
       <c r="B33" s="90">
         <v>0</v>
@@ -7108,7 +7091,7 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="90">
         <v>0</v>
@@ -7162,7 +7145,7 @@
         <v>45868</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="78"/>
       <c r="B35" s="90">
         <v>0</v>
@@ -7216,7 +7199,7 @@
         <v>46965</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="90">
         <v>0</v>
@@ -7270,7 +7253,7 @@
         <v>48789</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
       <c r="B37" s="90">
         <v>0</v>
@@ -7324,7 +7307,7 @@
         <v>50616</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="90">
         <v>0</v>
@@ -7378,7 +7361,7 @@
         <v>52442</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
       <c r="B39" s="96"/>
       <c r="C39" s="96"/>
@@ -7396,7 +7379,7 @@
       <c r="P39" s="106"/>
       <c r="Q39" s="106"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="110">
         <v>40556</v>
@@ -7450,7 +7433,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
       <c r="B41" s="110">
         <v>40584</v>
@@ -7504,7 +7487,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="110">
         <v>40612</v>
@@ -7558,7 +7541,7 @@
         <v>40640</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
       <c r="B43" s="110">
         <v>40640</v>
@@ -7612,7 +7595,7 @@
         <v>40668</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="110">
         <v>40668</v>
@@ -7666,7 +7649,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
       <c r="B45" s="110">
         <v>40703</v>
@@ -7720,7 +7703,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="110">
         <v>40731</v>
@@ -7774,7 +7757,7 @@
         <v>40759</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
       <c r="B47" s="110">
         <v>40759</v>
@@ -7828,7 +7811,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
       <c r="B48" s="110">
         <v>40794</v>
@@ -7882,7 +7865,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
       <c r="B49" s="110">
         <v>40822</v>
@@ -7936,7 +7919,7 @@
         <v>40857</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
       <c r="B50" s="110">
         <v>40857</v>
@@ -7990,7 +7973,7 @@
         <v>40885</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
       <c r="B51" s="110">
         <v>40885</v>
@@ -8044,7 +8027,7 @@
         <v>40913</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
       <c r="B52" s="110">
         <v>40913</v>
@@ -8098,7 +8081,7 @@
         <v>40948</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
       <c r="B53" s="110">
         <v>40948</v>
@@ -8152,7 +8135,7 @@
         <v>40976</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
       <c r="B54" s="110">
         <v>40976</v>
@@ -8206,7 +8189,7 @@
         <v>41004</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
       <c r="B55" s="110">
         <v>41004</v>
@@ -8260,7 +8243,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
       <c r="B56" s="110">
         <v>41039</v>
@@ -8314,7 +8297,7 @@
         <v>41067</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
       <c r="B57" s="110">
         <v>41067</v>
@@ -8368,7 +8351,7 @@
         <v>41095</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
       <c r="B58" s="110">
         <v>41095</v>
@@ -8422,7 +8405,7 @@
         <v>41123</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
       <c r="B59" s="110">
         <v>41123</v>
@@ -8476,7 +8459,7 @@
         <v>41158</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
       <c r="B60" s="110">
         <v>41158</v>
@@ -8530,7 +8513,7 @@
         <v>41186</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
       <c r="B61" s="110">
         <v>41186</v>
@@ -8584,7 +8567,7 @@
         <v>41221</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
       <c r="B62" s="110">
         <v>41221</v>
@@ -8638,7 +8621,7 @@
         <v>41249</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
       <c r="B63" s="110">
         <v>41249</v>
@@ -8692,7 +8675,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
       <c r="B64" s="99"/>
       <c r="C64" s="90" t="s">
@@ -8741,7 +8724,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="78"/>
       <c r="B65" s="99"/>
       <c r="C65" s="90" t="s">
@@ -8787,7 +8770,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="78"/>
       <c r="B66" s="99"/>
       <c r="C66" s="90" t="s">
@@ -8833,7 +8816,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="99"/>
       <c r="C67" s="90" t="s">
@@ -8879,7 +8862,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="99"/>
       <c r="C68" s="90" t="s">
@@ -8925,7 +8908,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="99"/>
       <c r="C69" s="90" t="s">
@@ -8971,7 +8954,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="99"/>
       <c r="C70" s="90" t="s">
@@ -9017,7 +9000,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="99"/>
       <c r="C71" s="90" t="s">
@@ -9063,7 +9046,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="99"/>
       <c r="C72" s="90" t="s">
@@ -9109,7 +9092,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="99"/>
       <c r="C73" s="90" t="s">
@@ -9155,7 +9138,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="78"/>
       <c r="B74" s="99"/>
       <c r="C74" s="90" t="s">
@@ -9201,7 +9184,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="78"/>
       <c r="B75" s="96"/>
       <c r="C75" s="96"/>
@@ -9217,7 +9200,7 @@
       <c r="M75" s="98"/>
       <c r="N75" s="81"/>
     </row>
-    <row r="76" spans="1:17" ht="12" thickBot="1">
+    <row r="76" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="100"/>
       <c r="B76" s="101"/>
       <c r="C76" s="101"/>
@@ -9258,7 +9241,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="77" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="77" bestFit="1" customWidth="1"/>
@@ -9278,7 +9261,7 @@
     <col min="18" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="73"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -9294,7 +9277,7 @@
       <c r="M1" s="74"/>
       <c r="N1" s="76"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="78"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -9318,7 +9301,7 @@
       <c r="M2" s="79"/>
       <c r="N2" s="81"/>
     </row>
-    <row r="3" spans="1:17" ht="36" customHeight="1">
+    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
       <c r="B3" s="82" t="s">
         <v>73</v>
@@ -9347,17 +9330,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YCONRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="84" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L74),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>57</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="86"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -9382,7 +9365,7 @@
       </c>
       <c r="N4" s="81"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="86"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -9398,7 +9381,7 @@
       <c r="M5" s="79"/>
       <c r="N5" s="81"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="B6" s="90">
         <v>0</v>
@@ -9451,7 +9434,7 @@
         <v>41492</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="90">
         <v>0</v>
@@ -9505,7 +9488,7 @@
         <v>41499</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="90">
         <v>0</v>
@@ -9559,7 +9542,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
       <c r="B9" s="90">
         <v>0</v>
@@ -9613,7 +9596,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="90">
         <v>0</v>
@@ -9667,7 +9650,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="90">
         <v>0</v>
@@ -9721,7 +9704,7 @@
         <v>41577</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="90">
         <v>0</v>
@@ -9775,7 +9758,7 @@
         <v>41607</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="90">
         <v>0</v>
@@ -9829,7 +9812,7 @@
         <v>41638</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="90">
         <v>0</v>
@@ -9883,7 +9866,7 @@
         <v>41669</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="90">
         <v>0</v>
@@ -9937,7 +9920,7 @@
         <v>41698</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="90">
         <v>0</v>
@@ -9991,7 +9974,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="90">
         <v>0</v>
@@ -10045,7 +10028,7 @@
         <v>41759</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="90">
         <v>0</v>
@@ -10099,7 +10082,7 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="90">
         <v>0</v>
@@ -10153,7 +10136,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="90">
         <v>0</v>
@@ -10207,7 +10190,7 @@
         <v>41850</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="90">
         <v>0</v>
@@ -10261,7 +10244,7 @@
         <v>41942</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="90">
         <v>0</v>
@@ -10315,7 +10298,7 @@
         <v>42034</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="90">
         <v>0</v>
@@ -10369,7 +10352,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
       <c r="B24" s="90">
         <v>0</v>
@@ -10423,7 +10406,7 @@
         <v>42215</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="78"/>
       <c r="B25" s="90">
         <v>0</v>
@@ -10477,7 +10460,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="78"/>
       <c r="B26" s="90">
         <v>0</v>
@@ -10531,7 +10514,7 @@
         <v>42947</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="78"/>
       <c r="B27" s="90">
         <v>0</v>
@@ -10585,7 +10568,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="78"/>
       <c r="B28" s="90">
         <v>0</v>
@@ -10639,7 +10622,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="78"/>
       <c r="B29" s="90">
         <v>0</v>
@@ -10693,7 +10676,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="78"/>
       <c r="B30" s="90">
         <v>0</v>
@@ -10747,7 +10730,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="78"/>
       <c r="B31" s="90">
         <v>0</v>
@@ -10801,7 +10784,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="90">
         <v>0</v>
@@ -10855,7 +10838,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="78"/>
       <c r="B33" s="90">
         <v>0</v>
@@ -10909,7 +10892,7 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="90">
         <v>0</v>
@@ -10963,7 +10946,7 @@
         <v>45868</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="78"/>
       <c r="B35" s="90">
         <v>0</v>
@@ -11017,7 +11000,7 @@
         <v>46965</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="90">
         <v>0</v>
@@ -11071,7 +11054,7 @@
         <v>48789</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
       <c r="B37" s="90">
         <v>0</v>
@@ -11125,7 +11108,7 @@
         <v>50616</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="90">
         <v>0</v>
@@ -11179,7 +11162,7 @@
         <v>52442</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
       <c r="B39" s="96"/>
       <c r="C39" s="96"/>
@@ -11197,7 +11180,7 @@
       <c r="P39" s="106"/>
       <c r="Q39" s="106"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="110">
         <v>40556</v>
@@ -11251,7 +11234,7 @@
         <v>40584</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
       <c r="B41" s="110">
         <v>40584</v>
@@ -11305,7 +11288,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="110">
         <v>40612</v>
@@ -11359,7 +11342,7 @@
         <v>40640</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
       <c r="B43" s="110">
         <v>40640</v>
@@ -11413,7 +11396,7 @@
         <v>40668</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="110">
         <v>40668</v>
@@ -11467,7 +11450,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
       <c r="B45" s="110">
         <v>40703</v>
@@ -11521,7 +11504,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="110">
         <v>40731</v>
@@ -11575,7 +11558,7 @@
         <v>40759</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
       <c r="B47" s="110">
         <v>40759</v>
@@ -11629,7 +11612,7 @@
         <v>40794</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
       <c r="B48" s="110">
         <v>40794</v>
@@ -11683,7 +11666,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
       <c r="B49" s="110">
         <v>40822</v>
@@ -11737,7 +11720,7 @@
         <v>40857</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
       <c r="B50" s="110">
         <v>40857</v>
@@ -11791,7 +11774,7 @@
         <v>40885</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
       <c r="B51" s="110">
         <v>40885</v>
@@ -11845,7 +11828,7 @@
         <v>40913</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
       <c r="B52" s="110">
         <v>40913</v>
@@ -11899,7 +11882,7 @@
         <v>40948</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
       <c r="B53" s="110">
         <v>40948</v>
@@ -11953,7 +11936,7 @@
         <v>40976</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
       <c r="B54" s="110">
         <v>40976</v>
@@ -12007,7 +11990,7 @@
         <v>41004</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
       <c r="B55" s="110">
         <v>41004</v>
@@ -12061,7 +12044,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
       <c r="B56" s="110">
         <v>41039</v>
@@ -12115,7 +12098,7 @@
         <v>41067</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
       <c r="B57" s="110">
         <v>41067</v>
@@ -12169,7 +12152,7 @@
         <v>41095</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
       <c r="B58" s="110">
         <v>41095</v>
@@ -12223,7 +12206,7 @@
         <v>41123</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
       <c r="B59" s="110">
         <v>41123</v>
@@ -12277,7 +12260,7 @@
         <v>41158</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
       <c r="B60" s="110">
         <v>41158</v>
@@ -12331,7 +12314,7 @@
         <v>41186</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
       <c r="B61" s="110">
         <v>41186</v>
@@ -12385,7 +12368,7 @@
         <v>41221</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
       <c r="B62" s="110">
         <v>41221</v>
@@ -12439,7 +12422,7 @@
         <v>41249</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
       <c r="B63" s="110">
         <v>41249</v>
@@ -12493,7 +12476,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
       <c r="B64" s="110"/>
       <c r="C64" s="90" t="s">
@@ -12542,7 +12525,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="78"/>
       <c r="B65" s="110"/>
       <c r="C65" s="90" t="s">
@@ -12591,7 +12574,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="78"/>
       <c r="B66" s="110"/>
       <c r="C66" s="90" t="s">
@@ -12640,7 +12623,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="110"/>
       <c r="C67" s="90" t="s">
@@ -12689,7 +12672,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="110"/>
       <c r="C68" s="90" t="s">
@@ -12738,7 +12721,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="110"/>
       <c r="C69" s="90" t="s">
@@ -12787,7 +12770,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="110"/>
       <c r="C70" s="90" t="s">
@@ -12836,7 +12819,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="110"/>
       <c r="C71" s="90" t="s">
@@ -12885,7 +12868,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="110"/>
       <c r="C72" s="90" t="s">
@@ -12934,7 +12917,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="110"/>
       <c r="C73" s="90" t="s">
@@ -12983,7 +12966,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="78"/>
       <c r="B74" s="110"/>
       <c r="C74" s="90" t="s">
@@ -13032,7 +13015,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="12" thickBot="1">
+    <row r="75" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="100"/>
       <c r="B75" s="101"/>
       <c r="C75" s="101"/>
@@ -13081,7 +13064,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -13099,7 +13082,7 @@
     <col min="15" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -13115,7 +13098,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13139,7 +13122,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1">
+    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>73</v>
@@ -13168,17 +13151,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13203,7 +13186,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13219,7 +13202,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>74</v>
@@ -13264,7 +13247,7 @@
       </c>
       <c r="N6" s="58"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>74</v>
@@ -13309,7 +13292,7 @@
       </c>
       <c r="N7" s="58"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>74</v>
@@ -13354,7 +13337,7 @@
       </c>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>74</v>
@@ -13399,7 +13382,7 @@
       </c>
       <c r="N9" s="58"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>74</v>
@@ -13444,7 +13427,7 @@
       </c>
       <c r="N10" s="58"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>74</v>
@@ -13489,7 +13472,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>74</v>
@@ -13534,7 +13517,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>74</v>
@@ -13579,7 +13562,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>74</v>
@@ -13624,7 +13607,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>74</v>
@@ -13669,7 +13652,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>74</v>
@@ -13714,7 +13697,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -13730,7 +13713,7 @@
       <c r="M17" s="63"/>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14" ht="12" thickBot="1">
+    <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -13771,7 +13754,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -13794,7 +13777,7 @@
     <col min="19" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -13810,7 +13793,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13834,7 +13817,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="36" customHeight="1">
+    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>73</v>
@@ -13861,17 +13844,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YC3MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>45</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13896,7 +13879,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" ht="12" thickBot="1">
+    <row r="5" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13912,7 +13895,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>74</v>
@@ -13968,7 +13951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>74</v>
@@ -14022,7 +14005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>74</v>
@@ -14076,7 +14059,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>74</v>
@@ -14130,7 +14113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" thickBot="1">
+    <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>74</v>
@@ -14184,7 +14167,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>74</v>
@@ -14229,7 +14212,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>74</v>
@@ -14274,7 +14257,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>74</v>
@@ -14319,7 +14302,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>74</v>
@@ -14364,7 +14347,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>74</v>
@@ -14409,7 +14392,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>74</v>
@@ -14454,7 +14437,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>74</v>
@@ -14499,7 +14482,7 @@
       </c>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>74</v>
@@ -14544,7 +14527,7 @@
       </c>
       <c r="N18" s="58"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>74</v>
@@ -14589,7 +14572,7 @@
       </c>
       <c r="N19" s="58"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>74</v>
@@ -14634,7 +14617,7 @@
       </c>
       <c r="N20" s="58"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>74</v>
@@ -14679,7 +14662,7 @@
       </c>
       <c r="N21" s="58"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>74</v>
@@ -14724,7 +14707,7 @@
       </c>
       <c r="N22" s="58"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>74</v>
@@ -14769,7 +14752,7 @@
       </c>
       <c r="N23" s="58"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>74</v>
@@ -14814,7 +14797,7 @@
       </c>
       <c r="N24" s="58"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>74</v>
@@ -14859,7 +14842,7 @@
       </c>
       <c r="N25" s="58"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>74</v>
@@ -14904,7 +14887,7 @@
       </c>
       <c r="N26" s="58"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>74</v>
@@ -14949,7 +14932,7 @@
       </c>
       <c r="N27" s="58"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>74</v>
@@ -14994,7 +14977,7 @@
       </c>
       <c r="N28" s="58"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>74</v>
@@ -15039,7 +15022,7 @@
       </c>
       <c r="N29" s="58"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>74</v>
@@ -15084,7 +15067,7 @@
       </c>
       <c r="N30" s="58"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
@@ -15129,7 +15112,7 @@
       </c>
       <c r="N31" s="58"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>74</v>
@@ -15174,7 +15157,7 @@
       </c>
       <c r="N32" s="58"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>74</v>
@@ -15219,7 +15202,7 @@
       </c>
       <c r="N33" s="58"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>74</v>
@@ -15264,7 +15247,7 @@
       </c>
       <c r="N34" s="58"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>74</v>
@@ -15309,7 +15292,7 @@
       </c>
       <c r="N35" s="58"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>74</v>
@@ -15354,7 +15337,7 @@
       </c>
       <c r="N36" s="58"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>74</v>
@@ -15399,7 +15382,7 @@
       </c>
       <c r="N37" s="58"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>74</v>
@@ -15444,7 +15427,7 @@
       </c>
       <c r="N38" s="58"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>74</v>
@@ -15489,7 +15472,7 @@
       </c>
       <c r="N39" s="58"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>74</v>
@@ -15534,7 +15517,7 @@
       </c>
       <c r="N40" s="58"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>74</v>
@@ -15579,7 +15562,7 @@
       </c>
       <c r="N41" s="58"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>74</v>
@@ -15624,7 +15607,7 @@
       </c>
       <c r="N42" s="58"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -15640,7 +15623,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="58"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>74</v>
@@ -15685,7 +15668,7 @@
       <c r="P44" s="67"/>
       <c r="Q44" s="67"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="7" t="s">
         <v>74</v>
@@ -15730,7 +15713,7 @@
       <c r="P45" s="67"/>
       <c r="Q45" s="67"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
         <v>74</v>
@@ -15775,7 +15758,7 @@
       <c r="P46" s="67"/>
       <c r="Q46" s="67"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="7" t="s">
         <v>74</v>
@@ -15820,7 +15803,7 @@
       <c r="P47" s="67"/>
       <c r="Q47" s="67"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
         <v>74</v>
@@ -15865,7 +15848,7 @@
       <c r="P48" s="67"/>
       <c r="Q48" s="67"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
         <v>74</v>
@@ -15910,7 +15893,7 @@
       <c r="P49" s="67"/>
       <c r="Q49" s="67"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="7" t="s">
         <v>74</v>
@@ -15955,7 +15938,7 @@
       <c r="P50" s="67"/>
       <c r="Q50" s="67"/>
     </row>
-    <row r="51" spans="1:17" ht="12" thickBot="1">
+    <row r="51" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -15999,7 +15982,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -16023,7 +16006,7 @@
     <col min="20" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -16039,7 +16022,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -16063,7 +16046,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:21" ht="22.5">
+    <row r="3" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>73</v>
@@ -16090,17 +16073,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YC6MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -16125,7 +16108,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:21" s="57" customFormat="1" ht="12" thickBot="1">
+    <row r="5" spans="1:21" s="57" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -16141,7 +16124,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>74</v>
@@ -16206,7 +16189,7 @@
         <v>41850</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>74</v>
@@ -16269,7 +16252,7 @@
         <v>41942</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>74</v>
@@ -16332,7 +16315,7 @@
         <v>42034</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>74</v>
@@ -16395,7 +16378,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="13.5" thickBot="1">
+    <row r="10" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>74</v>
@@ -16458,7 +16441,7 @@
         <v>42215</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>74</v>
@@ -16512,7 +16495,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>74</v>
@@ -16566,7 +16549,7 @@
         <v>42947</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>74</v>
@@ -16620,7 +16603,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>74</v>
@@ -16674,7 +16657,7 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>74</v>
@@ -16728,7 +16711,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>74</v>
@@ -16782,7 +16765,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>74</v>
@@ -16836,7 +16819,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>74</v>
@@ -16890,7 +16873,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>74</v>
@@ -16944,7 +16927,7 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>74</v>
@@ -16998,7 +16981,7 @@
         <v>45868</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>74</v>
@@ -17052,7 +17035,7 @@
         <v>46233</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>74</v>
@@ -17106,7 +17089,7 @@
         <v>46598</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>74</v>
@@ -17160,7 +17143,7 @@
         <v>46965</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>74</v>
@@ -17214,7 +17197,7 @@
         <v>47329</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>74</v>
@@ -17268,7 +17251,7 @@
         <v>47694</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>74</v>
@@ -17322,7 +17305,7 @@
         <v>48059</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>74</v>
@@ -17376,7 +17359,7 @@
         <v>48425</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>74</v>
@@ -17430,7 +17413,7 @@
         <v>48789</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>74</v>
@@ -17484,7 +17467,7 @@
         <v>49156</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>74</v>
@@ -17538,7 +17521,7 @@
         <v>49520</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
@@ -17592,7 +17575,7 @@
         <v>49886</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>74</v>
@@ -17646,7 +17629,7 @@
         <v>50251</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>74</v>
@@ -17700,7 +17683,7 @@
         <v>50616</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>74</v>
@@ -17754,7 +17737,7 @@
         <v>50980</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>74</v>
@@ -17808,7 +17791,7 @@
         <v>51347</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>74</v>
@@ -17862,7 +17845,7 @@
         <v>51712</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>74</v>
@@ -17916,7 +17899,7 @@
         <v>52077</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>74</v>
@@ -17970,7 +17953,7 @@
         <v>52442</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>74</v>
@@ -18024,7 +18007,7 @@
         <v>54269</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>74</v>
@@ -18078,7 +18061,7 @@
         <v>56095</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>74</v>
@@ -18132,7 +18115,7 @@
         <v>59747</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>74</v>
@@ -18186,7 +18169,7 @@
         <v>63401</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="13.5" thickBot="1">
+    <row r="43" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -18224,7 +18207,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -18243,7 +18226,7 @@
     <col min="15" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -18259,7 +18242,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -18285,7 +18268,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1">
+    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>73</v>
@@ -18314,17 +18297,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YC1M-MxRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -18349,7 +18332,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -18365,7 +18348,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>74</v>
@@ -18410,7 +18393,7 @@
       </c>
       <c r="N6" s="58"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>74</v>
@@ -18455,7 +18438,7 @@
       </c>
       <c r="N7" s="58"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>74</v>
@@ -18500,7 +18483,7 @@
       </c>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>74</v>
@@ -18545,7 +18528,7 @@
       </c>
       <c r="N9" s="58"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>74</v>
@@ -18590,7 +18573,7 @@
       </c>
       <c r="N10" s="58"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>74</v>
@@ -18635,7 +18618,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>74</v>
@@ -18680,7 +18663,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>74</v>
@@ -18725,7 +18708,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>74</v>
@@ -18770,7 +18753,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>74</v>
@@ -18815,7 +18798,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>74</v>
@@ -18860,7 +18843,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -18876,7 +18859,7 @@
       <c r="M17" s="63"/>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14" ht="12" thickBot="1">
+    <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -18917,7 +18900,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -18940,7 +18923,7 @@
     <col min="19" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -18956,7 +18939,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -18982,7 +18965,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="36" customHeight="1">
+    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>73</v>
@@ -19009,17 +18992,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YC3M-MxRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>45</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -19044,7 +19027,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" ht="12" thickBot="1">
+    <row r="5" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -19060,7 +19043,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>74</v>
@@ -19117,7 +19100,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>74</v>
@@ -19172,7 +19155,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>74</v>
@@ -19227,7 +19210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>74</v>
@@ -19282,7 +19265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" thickBot="1">
+    <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>74</v>
@@ -19337,7 +19320,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>74</v>
@@ -19383,7 +19366,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>74</v>
@@ -19429,7 +19412,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>74</v>
@@ -19475,7 +19458,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>74</v>
@@ -19521,7 +19504,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>74</v>
@@ -19567,7 +19550,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>74</v>
@@ -19613,7 +19596,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>74</v>
@@ -19659,7 +19642,7 @@
       </c>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>74</v>
@@ -19705,7 +19688,7 @@
       </c>
       <c r="N18" s="58"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>74</v>
@@ -19751,7 +19734,7 @@
       </c>
       <c r="N19" s="58"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>74</v>
@@ -19797,7 +19780,7 @@
       </c>
       <c r="N20" s="58"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>74</v>
@@ -19843,7 +19826,7 @@
       </c>
       <c r="N21" s="58"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>74</v>
@@ -19889,7 +19872,7 @@
       </c>
       <c r="N22" s="58"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>74</v>
@@ -19935,7 +19918,7 @@
       </c>
       <c r="N23" s="58"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>74</v>
@@ -19981,7 +19964,7 @@
       </c>
       <c r="N24" s="58"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>74</v>
@@ -20027,7 +20010,7 @@
       </c>
       <c r="N25" s="58"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>74</v>
@@ -20073,7 +20056,7 @@
       </c>
       <c r="N26" s="58"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>74</v>
@@ -20119,7 +20102,7 @@
       </c>
       <c r="N27" s="58"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>74</v>
@@ -20165,7 +20148,7 @@
       </c>
       <c r="N28" s="58"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>74</v>
@@ -20211,7 +20194,7 @@
       </c>
       <c r="N29" s="58"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>74</v>
@@ -20257,7 +20240,7 @@
       </c>
       <c r="N30" s="58"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
@@ -20303,7 +20286,7 @@
       </c>
       <c r="N31" s="58"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>74</v>
@@ -20349,7 +20332,7 @@
       </c>
       <c r="N32" s="58"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>74</v>
@@ -20395,7 +20378,7 @@
       </c>
       <c r="N33" s="58"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>74</v>
@@ -20441,7 +20424,7 @@
       </c>
       <c r="N34" s="58"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>74</v>
@@ -20487,7 +20470,7 @@
       </c>
       <c r="N35" s="58"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>74</v>
@@ -20533,7 +20516,7 @@
       </c>
       <c r="N36" s="58"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>74</v>
@@ -20579,7 +20562,7 @@
       </c>
       <c r="N37" s="58"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>74</v>
@@ -20625,7 +20608,7 @@
       </c>
       <c r="N38" s="58"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>74</v>
@@ -20671,7 +20654,7 @@
       </c>
       <c r="N39" s="58"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>74</v>
@@ -20717,7 +20700,7 @@
       </c>
       <c r="N40" s="58"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>74</v>
@@ -20763,7 +20746,7 @@
       </c>
       <c r="N41" s="58"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>74</v>
@@ -20809,7 +20792,7 @@
       </c>
       <c r="N42" s="58"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -20825,7 +20808,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="58"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>74</v>
@@ -20870,7 +20853,7 @@
       <c r="P44" s="67"/>
       <c r="Q44" s="67"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="7" t="s">
         <v>74</v>
@@ -20915,7 +20898,7 @@
       <c r="P45" s="67"/>
       <c r="Q45" s="67"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
         <v>74</v>
@@ -20960,7 +20943,7 @@
       <c r="P46" s="67"/>
       <c r="Q46" s="67"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="7" t="s">
         <v>74</v>
@@ -21005,7 +20988,7 @@
       <c r="P47" s="67"/>
       <c r="Q47" s="67"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
         <v>74</v>
@@ -21050,7 +21033,7 @@
       <c r="P48" s="67"/>
       <c r="Q48" s="67"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
         <v>74</v>
@@ -21095,7 +21078,7 @@
       <c r="P49" s="67"/>
       <c r="Q49" s="67"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="7" t="s">
         <v>74</v>
@@ -21140,7 +21123,7 @@
       <c r="P50" s="67"/>
       <c r="Q50" s="67"/>
     </row>
-    <row r="51" spans="1:17" ht="12" thickBot="1">
+    <row r="51" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Swaps.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="108">
   <si>
     <t>Currency</t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>MPC</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1427,8 +1424,9 @@
       <c r="C8" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>108</v>
+      <c r="D8" s="38" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -1687,12 +1685,12 @@
         <v>GBP_YC6M-MxRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
     </row>
@@ -3614,12 +3612,12 @@
         <v>GBP_YCSTDRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
     </row>
@@ -5530,12 +5528,12 @@
         <v>GBP_YCRH_Swaps.xml</v>
       </c>
       <c r="L3" s="84" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L74),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="85" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L74),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -8661,9 +8659,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="85" t="str">
+      <c r="M63" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -8710,9 +8708,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="85" t="str">
+      <c r="M64" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -9331,12 +9329,12 @@
         <v>GBP_YCONRH_Swaps.xml</v>
       </c>
       <c r="L3" s="84" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L74),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="85" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L74),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -12462,9 +12460,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="85" t="str">
+      <c r="M63" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -12511,9 +12509,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="85" t="str">
+      <c r="M64" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -12560,9 +12558,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="85" t="str">
+      <c r="M65" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -12609,9 +12607,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="85" t="str">
+      <c r="M66" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -12658,9 +12656,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="85" t="str">
+      <c r="M67" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -12707,9 +12705,9 @@
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="85" t="str">
+      <c r="M68" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -12756,9 +12754,9 @@
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="85" t="str">
+      <c r="M69" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -12805,9 +12803,9 @@
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="85" t="str">
+      <c r="M70" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -12854,9 +12852,9 @@
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="85" t="str">
+      <c r="M71" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -12903,9 +12901,9 @@
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="85" t="str">
+      <c r="M72" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -12952,9 +12950,9 @@
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M73" s="85" t="str">
+      <c r="M73" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -13001,9 +12999,9 @@
         <f>_xll.qlDatedOISRateHelper(K74,B74,#REF!,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M74" s="85" t="str">
+      <c r="M74" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -13152,12 +13150,12 @@
         <v>GBP_YC1MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
@@ -13845,12 +13843,12 @@
         <v>GBP_YC3MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
@@ -16074,12 +16072,12 @@
         <v>GBP_YC6MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
     </row>
@@ -18298,12 +18296,12 @@
         <v>GBP_YC1M-MxRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
@@ -18993,12 +18991,12 @@
         <v>GBP_YC3M-MxRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
